--- a/public/templates/mau-nhap-giang-vien.xlsx
+++ b/public/templates/mau-nhap-giang-vien.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DU AN QUAN LY SINH VIEN VA KET QUA HOC TAP\Frontend\free-nextjs-admin-dashboard-main\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F9DE58-A5BD-438B-B7E4-A28CD6A7B1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,31 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="101">
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Mã Giảng viên</t>
-  </si>
-  <si>
-    <t>Họ và tên</t>
-  </si>
-  <si>
-    <t>Ngày sinh</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Giới tính</t>
-  </si>
-  <si>
-    <t>Địa chỉ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="102">
   <si>
     <t>GV001</t>
   </si>
@@ -327,12 +304,39 @@
   </si>
   <si>
     <t>789 Kim Mã, Ba Đình, Hà Nội</t>
+  </si>
+  <si>
+    <t>Mã Môn học (Optional)</t>
+  </si>
+  <si>
+    <t>Địa chỉ (Required)</t>
+  </si>
+  <si>
+    <t>Giới tính (Required)</t>
+  </si>
+  <si>
+    <t>Số điện thoại (Required)</t>
+  </si>
+  <si>
+    <t>Email (Required)</t>
+  </si>
+  <si>
+    <t>Ngày sinh (Required)</t>
+  </si>
+  <si>
+    <t>Họ và tên (Required)</t>
+  </si>
+  <si>
+    <t>Mã Giảng viên (Required)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STT </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,14 +366,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -411,17 +417,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H16" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H16"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="STT" dataDxfId="8"/>
-    <tableColumn id="2" name="Mã Giảng viên" dataDxfId="7"/>
-    <tableColumn id="3" name="Họ và tên" dataDxfId="6"/>
-    <tableColumn id="4" name="Ngày sinh" dataDxfId="5"/>
-    <tableColumn id="5" name="Email" dataDxfId="4"/>
-    <tableColumn id="6" name="Số điện thoại" dataDxfId="3"/>
-    <tableColumn id="7" name="Giới tính" dataDxfId="2"/>
-    <tableColumn id="8" name="Địa chỉ" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I16" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:I16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT " dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mã Giảng viên (Required)" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Họ và tên (Required)" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Ngày sinh (Required)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Email (Required)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Số điện thoại (Required)" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Giới tính (Required)" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Địa chỉ (Required)" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{6B622AE6-3A60-42CE-8ED0-18145A36F3B3}" name="Mã Môn học (Optional)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -689,11 +696,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,422 +713,426 @@
     <col min="6" max="6" width="30.85546875" customWidth="1"/>
     <col min="7" max="7" width="31.140625" customWidth="1"/>
     <col min="8" max="8" width="68.7109375" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="H14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="H15" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="1" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="C16" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="D16" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E16" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F16" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="G16" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H16" t="s">
         <v>92</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
